--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F3B84EC-5EF8-44B8-8C9F-605A388F9393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,8 @@
     <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
     <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O13"/>
 </workbook>
 </file>
 
@@ -299,8 +301,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +465,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -509,7 +519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,9 +551,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,6 +603,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,30 +796,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
@@ -781,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -789,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -797,7 +843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
@@ -806,7 +852,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -823,7 +869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -840,7 +886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -857,7 +903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -874,7 +920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -891,7 +937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -908,7 +954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -930,7 +976,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -945,7 +991,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -956,7 +1002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -965,7 +1011,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -974,7 +1020,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -983,7 +1029,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1010,23 +1056,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
@@ -1034,7 +1080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
@@ -1044,8 +1090,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
@@ -1053,29 +1099,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
@@ -1083,16 +1129,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
@@ -1103,7 +1149,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -1120,19 +1166,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -1143,33 +1189,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
@@ -1216,7 +1262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>87</v>
       </c>
@@ -1263,7 +1309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>88</v>
       </c>
@@ -1310,7 +1356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>89</v>
       </c>
@@ -1359,9 +1405,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
